--- a/Spreadsheets/Site-Data.xlsx
+++ b/Spreadsheets/Site-Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="89">
   <si>
     <t>Day</t>
   </si>
@@ -162,7 +162,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1A</t>
   </si>
   <si>
     <t>Fringe</t>
@@ -177,16 +180,22 @@
     <t>same</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2A</t>
   </si>
   <si>
     <t>Interior</t>
@@ -204,16 +213,16 @@
     <t>300</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>2B</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>2C</t>
   </si>
   <si>
-    <t>C</t>
+    <t>4</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>4A</t>
   </si>
   <si>
     <t>Varzea</t>
@@ -222,55 +231,55 @@
     <t>264</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>4B</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>4C</t>
   </si>
   <si>
-    <t>D</t>
+    <t>5</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>5A</t>
   </si>
   <si>
     <t>690</t>
   </si>
   <si>
-    <t>D2</t>
+    <t>5B</t>
   </si>
   <si>
-    <t>D3</t>
+    <t>5C</t>
   </si>
   <si>
-    <t>E</t>
+    <t>6</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>6A</t>
   </si>
   <si>
     <t>560</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>6B</t>
   </si>
   <si>
-    <t>E3</t>
+    <t>6C</t>
   </si>
   <si>
-    <t>F</t>
+    <t>10</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>10A</t>
   </si>
   <si>
     <t>Degraded</t>
   </si>
   <si>
-    <t>F2</t>
+    <t>10B</t>
   </si>
   <si>
-    <t>F3</t>
+    <t>10C</t>
   </si>
   <si>
     <t xml:space="preserve">Fringe </t>
@@ -847,32 +856,32 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
-        <v>1.0</v>
+      <c r="A2" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="7">
         <v>0.8287018544935807</v>
@@ -986,36 +995,36 @@
         <v>1.0</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="J3" s="12">
         <v>0.8930093695891854</v>
@@ -1129,36 +1138,36 @@
         <v>2.0</v>
       </c>
       <c r="AU3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="J4" s="15">
         <v>0.873272954743255</v>
@@ -1272,36 +1281,36 @@
         <v>3.0</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
-        <v>1.0</v>
+      <c r="A5" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" s="7">
         <v>0.882205295849853</v>
@@ -1415,36 +1424,36 @@
         <v>4.0</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>2.0</v>
+      <c r="A6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J6" s="12">
         <v>0.9431156787432091</v>
@@ -1558,36 +1567,36 @@
         <v>5.0</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>3.0</v>
+      <c r="A7" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J7" s="15">
         <v>0.8940406268802109</v>
@@ -1701,36 +1710,36 @@
         <v>6.0</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
-        <v>1.0</v>
+      <c r="A8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J8" s="7">
         <v>0.9219275921517116</v>
@@ -1844,36 +1853,36 @@
         <v>7.0</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
-        <v>2.0</v>
+      <c r="A9" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J9" s="12">
         <v>0.9114044116163145</v>
@@ -1987,36 +1996,36 @@
         <v>8.0</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
-        <v>3.0</v>
+      <c r="A10" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J10" s="15">
         <v>0.897315267569367</v>
@@ -2130,36 +2139,36 @@
         <v>9.0</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
-        <v>1.0</v>
+      <c r="A11" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J11" s="7">
         <v>0.8913815548337356</v>
@@ -2273,36 +2282,36 @@
         <v>10.0</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
-        <v>2.0</v>
+      <c r="A12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J12" s="12">
         <v>0.9095753874517486</v>
@@ -2416,36 +2425,36 @@
         <v>11.0</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
-        <v>3.0</v>
+      <c r="A13" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J13" s="15">
         <v>0.8840327439648322</v>
@@ -2559,36 +2568,36 @@
         <v>12.0</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
-        <v>1.0</v>
+      <c r="A14" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J14" s="7">
         <v>0.9232280987298018</v>
@@ -2702,36 +2711,36 @@
         <v>13.0</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
-        <v>2.0</v>
+      <c r="A15" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J15" s="12">
         <v>0.9278416384028403</v>
@@ -2845,36 +2854,36 @@
         <v>14.0</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
-        <v>3.0</v>
+      <c r="A16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J16" s="15">
         <v>0.9050943036768908</v>
@@ -2988,36 +2997,36 @@
         <v>15.0</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
-        <v>1.0</v>
+      <c r="A17" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J17" s="7">
         <v>0.9097830371246269</v>
@@ -3131,36 +3140,36 @@
         <v>16.0</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
-        <v>2.0</v>
+      <c r="A18" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J18" s="12">
         <v>0.9281837619608577</v>
@@ -3274,36 +3283,36 @@
         <v>17.0</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
-        <v>3.0</v>
+      <c r="A19" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J19" s="15">
         <v>0.8559373872672804</v>
@@ -3417,7 +3426,7 @@
         <v>18.0</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
